--- a/medicine/Mort/Plate-tombe_d'Aliénor_de_Vipont/Plate-tombe_d'Aliénor_de_Vipont.xlsx
+++ b/medicine/Mort/Plate-tombe_d'Aliénor_de_Vipont/Plate-tombe_d'Aliénor_de_Vipont.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Plate-tombe_d%27Ali%C3%A9nor_de_Vipont</t>
+          <t>Plate-tombe_d'Aliénor_de_Vipont</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La plate-tombe d'Aliénor de Vipont est trouvée en 1894 ou 1895 dans un étang au lieu-dit de Cassecrabey, près de Créon. Elle provient vraisemblablement de l'abbaye de La Sauve-Majeure[1] et se trouve aujourd'hui au musée d'Aquitaine à Bordeaux (numéro d'inventaire 12.596).
-En 1896, Jean-Auguste Brutails décrit le monument dans le Bulletin monumental[2]. Il identifie alors la plate-tombe comme étant celle d'Aliénor de Vipont, épouse du seigneur de Leyburn, dont le nom apparaissait dans l'épitaphe.  
-Cette identification, qui reposait avant tout sur la représentation physique d'un corps féminin et l'épitaphe, était remise en cause quelques années plus tard : la nudité du corps, en partie dissimulé par un écu comportant six lions rampants, n'était pas du tout habituelle au XIIe siècle et le style est proche de celle utilisé pour représenter de jeunes chevaliers anglais de la fin du XIVe siècle. Cependant, la date de 1270 figure sans ambiguïté sur l'épitaphe et les historiens d'aujourd'hui[3],[4] considèrent qu'il s'agit bien d'Aliénor de Vipont et que le sculpteur de la plate-tombe était un précurseur. À ce titre la plate-tombe est importante dans l'histoire de l'art funéraire.
-Quoi qu'il en soit, il s'agit ici d'un proche de Roger de Leyburn, mort en 1271, fondateur de la bastide éponyme de Libourne[5], car les armoiries gravées sur la pierre tombale de Cassecrabey sont bien celles de la famille de Leybourne[6].
+La plate-tombe d'Aliénor de Vipont est trouvée en 1894 ou 1895 dans un étang au lieu-dit de Cassecrabey, près de Créon. Elle provient vraisemblablement de l'abbaye de La Sauve-Majeure et se trouve aujourd'hui au musée d'Aquitaine à Bordeaux (numéro d'inventaire 12.596).
+En 1896, Jean-Auguste Brutails décrit le monument dans le Bulletin monumental. Il identifie alors la plate-tombe comme étant celle d'Aliénor de Vipont, épouse du seigneur de Leyburn, dont le nom apparaissait dans l'épitaphe.  
+Cette identification, qui reposait avant tout sur la représentation physique d'un corps féminin et l'épitaphe, était remise en cause quelques années plus tard : la nudité du corps, en partie dissimulé par un écu comportant six lions rampants, n'était pas du tout habituelle au XIIe siècle et le style est proche de celle utilisé pour représenter de jeunes chevaliers anglais de la fin du XIVe siècle. Cependant, la date de 1270 figure sans ambiguïté sur l'épitaphe et les historiens d'aujourd'hui, considèrent qu'il s'agit bien d'Aliénor de Vipont et que le sculpteur de la plate-tombe était un précurseur. À ce titre la plate-tombe est importante dans l'histoire de l'art funéraire.
+Quoi qu'il en soit, il s'agit ici d'un proche de Roger de Leyburn, mort en 1271, fondateur de la bastide éponyme de Libourne, car les armoiries gravées sur la pierre tombale de Cassecrabey sont bien celles de la famille de Leybourne.
 Description de Brutails dans le Bulletin monumental
 Créon est un chef-lieu de canton de la Gironde, arrondissement de Bordeaux, desservi par la petite ligne de Bordeaux à La Sauve. Le monastère de la Sauve est à 4 km environ à l'est. Du côté opposé, à 1 km exactement se trouve la propriété de Cassecrabey. À quelques pas de la ferme, dans un de ces plis de terrain qui coupent de si heureuse façon l'Entre-deux-Mers, sourd une fontaine qui alimente un étang minuscule. C'est dans cette pièce d'eau que l'on a découvert, il y a quelques années, la tombe-plate.
 Cette dalle est dans un médiocre état de conservation ; elle a été brisée en deux, peut-être par des lavandières qui en ont employé les deux morceaux pour laver le linge. La moitié inférieure est détériorée par en bas ; la partie supérieure est écornée par en haut, à droite ; la pierre est rongée sur plusieurs points, et l'épitaphe a malheureusement beaucoup souffert.
